--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_MCPS_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_MCPS_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.2247151996440993</v>
+        <v>0.2993704532142381</v>
       </c>
       <c r="D2">
-        <v>0.8222281831267959</v>
+        <v>0.7674673634114755</v>
       </c>
       <c r="E2">
         <v>0.6641080969437984</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.8754785402987603</v>
+        <v>0.9669118278236888</v>
       </c>
       <c r="D3">
-        <v>0.3814388050746329</v>
+        <v>0.3440980840260441</v>
       </c>
       <c r="E3">
         <v>0.6641080969437984</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.981679956646817</v>
+        <v>2.744122980905169</v>
       </c>
       <c r="D4">
-        <v>0.002907983223870536</v>
+        <v>0.01184251181707374</v>
       </c>
       <c r="E4">
         <v>0.6641080969437984</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>3.258077585133342</v>
+        <v>3.192566322957168</v>
       </c>
       <c r="D5">
-        <v>0.001144101030930322</v>
+        <v>0.004205060765871238</v>
       </c>
       <c r="E5">
         <v>0.6641080969437984</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.6628617557072245</v>
+        <v>0.6639443969063273</v>
       </c>
       <c r="D6">
-        <v>0.5075100826813688</v>
+        <v>0.513624615254755</v>
       </c>
       <c r="E6">
         <v>0.6594769899241509</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.663355965144049</v>
+        <v>2.789356599532246</v>
       </c>
       <c r="D7">
-        <v>0.007810507988150084</v>
+        <v>0.0106906919234353</v>
       </c>
       <c r="E7">
         <v>0.6594769899241509</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.748343511503808</v>
+        <v>2.815533950627114</v>
       </c>
       <c r="D8">
-        <v>0.006053830015637862</v>
+        <v>0.01007357481652327</v>
       </c>
       <c r="E8">
         <v>0.6594769899241509</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.194529952500311</v>
+        <v>2.331328304349616</v>
       </c>
       <c r="D9">
-        <v>0.02833388223071931</v>
+        <v>0.0292967797309116</v>
       </c>
       <c r="E9">
         <v>0.6452018178371961</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.59438638656227</v>
+        <v>4.077472475926144</v>
       </c>
       <c r="D10">
-        <v>0.009558461085885872</v>
+        <v>0.0004993021002315245</v>
       </c>
       <c r="E10">
         <v>0.6452018178371961</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.2039391091235969</v>
+        <v>0.2169943424381551</v>
       </c>
       <c r="D11">
-        <v>0.8384257977108105</v>
+        <v>0.830212472195039</v>
       </c>
       <c r="E11">
         <v>0.5998121915879329</v>
